--- a/data/trans_orig/P42C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P42C-Provincia-trans_orig.xlsx
@@ -623,19 +623,19 @@
         <v>53670</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>41033</v>
+        <v>41116</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67275</v>
+        <v>68656</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2285034364992176</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1747023663844957</v>
+        <v>0.1750553472804706</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2864263505522954</v>
+        <v>0.2923093729373758</v>
       </c>
     </row>
     <row r="5">
@@ -652,19 +652,19 @@
         <v>181206</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>167601</v>
+        <v>166220</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>193843</v>
+        <v>193760</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7714965635007823</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7135736494477043</v>
+        <v>0.707690627062624</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8252976336155042</v>
+        <v>0.8249446527195285</v>
       </c>
     </row>
     <row r="6">
@@ -714,19 +714,19 @@
         <v>98357</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>80466</v>
+        <v>79296</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>117017</v>
+        <v>116606</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2264023361618332</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1852208723487565</v>
+        <v>0.1825279313285924</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2693551490943308</v>
+        <v>0.268408503029916</v>
       </c>
     </row>
     <row r="8">
@@ -743,19 +743,19 @@
         <v>336077</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>317417</v>
+        <v>317828</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>353968</v>
+        <v>355138</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7735976638381669</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7306448509056694</v>
+        <v>0.7315914969700843</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8147791276512437</v>
+        <v>0.8174720686714078</v>
       </c>
     </row>
     <row r="9">
@@ -805,19 +805,19 @@
         <v>57655</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45329</v>
+        <v>45281</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>72715</v>
+        <v>73136</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2153022926787826</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1692714930511985</v>
+        <v>0.1690915228201167</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2715422439486794</v>
+        <v>0.2731140189987606</v>
       </c>
     </row>
     <row r="11">
@@ -834,19 +834,19 @@
         <v>210132</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>195072</v>
+        <v>194651</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>222458</v>
+        <v>222506</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7846977073212174</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7284577560513208</v>
+        <v>0.7268859810012394</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8307285069488016</v>
+        <v>0.8309084771798834</v>
       </c>
     </row>
     <row r="12">
@@ -896,19 +896,19 @@
         <v>86922</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72246</v>
+        <v>72590</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>103762</v>
+        <v>103193</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3009041711523946</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2500998499202374</v>
+        <v>0.2512916136727932</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3592023229321626</v>
+        <v>0.3572303132025708</v>
       </c>
     </row>
     <row r="14">
@@ -925,19 +925,19 @@
         <v>201947</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>185107</v>
+        <v>185676</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>216623</v>
+        <v>216279</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6990958288476055</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6407976770678372</v>
+        <v>0.6427696867974291</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7499001500797625</v>
+        <v>0.7487083863272066</v>
       </c>
     </row>
     <row r="15">
@@ -987,19 +987,19 @@
         <v>49433</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38451</v>
+        <v>38162</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>61845</v>
+        <v>61584</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2918246773459733</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2269932182922504</v>
+        <v>0.2252850927422699</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3650948469611984</v>
+        <v>0.3635535756718193</v>
       </c>
     </row>
     <row r="17">
@@ -1016,19 +1016,19 @@
         <v>119961</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>107549</v>
+        <v>107810</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>130943</v>
+        <v>131232</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7081753226540266</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6349051530388017</v>
+        <v>0.6364464243281805</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7730067817077503</v>
+        <v>0.7747149072577302</v>
       </c>
     </row>
     <row r="18">
@@ -1078,19 +1078,19 @@
         <v>44953</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>33424</v>
+        <v>33252</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>58488</v>
+        <v>60035</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.209286363600207</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1556124012365119</v>
+        <v>0.1548090790385917</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2722999656787363</v>
+        <v>0.2795045576066401</v>
       </c>
     </row>
     <row r="20">
@@ -1107,19 +1107,19 @@
         <v>169839</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>156304</v>
+        <v>154757</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>181368</v>
+        <v>181540</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.790713636399793</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7277000343212637</v>
+        <v>0.7204954423933595</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.844387598763488</v>
+        <v>0.8451909209614082</v>
       </c>
     </row>
     <row r="21">
@@ -1169,19 +1169,19 @@
         <v>135901</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>113565</v>
+        <v>115265</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>158225</v>
+        <v>158274</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2429687716123319</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2030356361387929</v>
+        <v>0.2060742953139414</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2828797766777276</v>
+        <v>0.2829679224828446</v>
       </c>
     </row>
     <row r="23">
@@ -1198,19 +1198,19 @@
         <v>423434</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>401110</v>
+        <v>401061</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>445770</v>
+        <v>444070</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.757031228387668</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7171202233222725</v>
+        <v>0.7170320775171553</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7969643638612071</v>
+        <v>0.7939257046860585</v>
       </c>
     </row>
     <row r="24">
@@ -1260,19 +1260,19 @@
         <v>128784</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>108970</v>
+        <v>107205</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>151133</v>
+        <v>151224</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2257202617383321</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1909925230978202</v>
+        <v>0.1878993565539938</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2648923705651421</v>
+        <v>0.2650511458469959</v>
       </c>
     </row>
     <row r="26">
@@ -1289,19 +1289,19 @@
         <v>441762</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>419413</v>
+        <v>419322</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>461576</v>
+        <v>463341</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.774279738261668</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7351076294348579</v>
+        <v>0.7349488541530044</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8090074769021798</v>
+        <v>0.8121006434460064</v>
       </c>
     </row>
     <row r="27">
@@ -1351,19 +1351,19 @@
         <v>655675</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>610102</v>
+        <v>607857</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>712838</v>
+        <v>701116</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2392945599751317</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2226620354067518</v>
+        <v>0.2218427587870181</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2601567587401805</v>
+        <v>0.2558787532653669</v>
       </c>
     </row>
     <row r="29">
@@ -1380,19 +1380,19 @@
         <v>2084359</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2027196</v>
+        <v>2038918</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2129932</v>
+        <v>2132177</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7607054400248683</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7398432412598196</v>
+        <v>0.7441212467346331</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7773379645932481</v>
+        <v>0.7781572412129818</v>
       </c>
     </row>
     <row r="30">
@@ -1564,19 +1564,19 @@
         <v>50722</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39422</v>
+        <v>38670</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65867</v>
+        <v>63956</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2228627430355397</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1732140910793641</v>
+        <v>0.1699097016069989</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2894091459714988</v>
+        <v>0.281011258973343</v>
       </c>
     </row>
     <row r="5">
@@ -1593,19 +1593,19 @@
         <v>176870</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>161725</v>
+        <v>163636</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>188170</v>
+        <v>188922</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7771372569644603</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7105908540285016</v>
+        <v>0.7189887410266573</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.826785908920636</v>
+        <v>0.8300902983930013</v>
       </c>
     </row>
     <row r="6">
@@ -1655,19 +1655,19 @@
         <v>59504</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45925</v>
+        <v>46035</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74455</v>
+        <v>74457</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1489514869854259</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1149602902721927</v>
+        <v>0.1152353987671339</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1863769722585871</v>
+        <v>0.1863837021964142</v>
       </c>
     </row>
     <row r="8">
@@ -1684,19 +1684,19 @@
         <v>339980</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>325029</v>
+        <v>325027</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>353559</v>
+        <v>353449</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8510485130145741</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8136230277414129</v>
+        <v>0.8136162978035859</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8850397097278073</v>
+        <v>0.8847646012328662</v>
       </c>
     </row>
     <row r="9">
@@ -1746,19 +1746,19 @@
         <v>15350</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9026</v>
+        <v>9005</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24087</v>
+        <v>23650</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05567432345135892</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03273797038002021</v>
+        <v>0.03266302407770538</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08736537632259787</v>
+        <v>0.0857806729295776</v>
       </c>
     </row>
     <row r="11">
@@ -1775,19 +1775,19 @@
         <v>260352</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>251615</v>
+        <v>252052</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>266676</v>
+        <v>266697</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9443256765486411</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9126346236774021</v>
+        <v>0.9142193270704224</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9672620296199798</v>
+        <v>0.9673369759222946</v>
       </c>
     </row>
     <row r="12">
@@ -1837,19 +1837,19 @@
         <v>38040</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26890</v>
+        <v>26599</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51095</v>
+        <v>51528</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1332971766218555</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09422634254445371</v>
+        <v>0.09320399674421227</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1790428399387341</v>
+        <v>0.1805585414956647</v>
       </c>
     </row>
     <row r="14">
@@ -1866,19 +1866,19 @@
         <v>247340</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>234285</v>
+        <v>233852</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>258490</v>
+        <v>258781</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8667028233781445</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8209571600612658</v>
+        <v>0.8194414585043353</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9057736574555463</v>
+        <v>0.9067960032557877</v>
       </c>
     </row>
     <row r="15">
@@ -1928,19 +1928,19 @@
         <v>6221</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2613</v>
+        <v>2650</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11757</v>
+        <v>12647</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03676245813146169</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01544489810989016</v>
+        <v>0.01566152371999105</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06948284400674047</v>
+        <v>0.07474178011498603</v>
       </c>
     </row>
     <row r="17">
@@ -1957,19 +1957,19 @@
         <v>162987</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>157451</v>
+        <v>156561</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>166595</v>
+        <v>166558</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9632375418685383</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9305171559932597</v>
+        <v>0.9252582198850141</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9845551018901098</v>
+        <v>0.9843384762800089</v>
       </c>
     </row>
     <row r="18">
@@ -2019,19 +2019,19 @@
         <v>37313</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26036</v>
+        <v>26922</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>48667</v>
+        <v>50095</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1800221983647544</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1256158208854427</v>
+        <v>0.1298906185258907</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.234802001168985</v>
+        <v>0.2416939937810884</v>
       </c>
     </row>
     <row r="20">
@@ -2048,19 +2048,19 @@
         <v>169955</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>158601</v>
+        <v>157173</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>181232</v>
+        <v>180346</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8199778016352456</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7651979988310151</v>
+        <v>0.7583060062189115</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8743841791145575</v>
+        <v>0.8701093814741093</v>
       </c>
     </row>
     <row r="21">
@@ -2110,19 +2110,19 @@
         <v>127274</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>109073</v>
+        <v>110060</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>148626</v>
+        <v>149278</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2351947254875021</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2015605604713141</v>
+        <v>0.2033839872979983</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2746515678690694</v>
+        <v>0.2758561321617698</v>
       </c>
     </row>
     <row r="23">
@@ -2139,19 +2139,19 @@
         <v>413871</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>392519</v>
+        <v>391867</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>432072</v>
+        <v>431085</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7648052745124979</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7253484321309306</v>
+        <v>0.7241438678382301</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7984394395286859</v>
+        <v>0.7966160127020016</v>
       </c>
     </row>
     <row r="24">
@@ -2201,19 +2201,19 @@
         <v>95108</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>78665</v>
+        <v>79679</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>114840</v>
+        <v>116552</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1417457724210415</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1172401823049549</v>
+        <v>0.1187513752484866</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.17115463811253</v>
+        <v>0.1737059163393562</v>
       </c>
     </row>
     <row r="26">
@@ -2230,19 +2230,19 @@
         <v>575867</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>556135</v>
+        <v>554423</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>592310</v>
+        <v>591296</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8582542275789585</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8288453618874703</v>
+        <v>0.8262940836606439</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8827598176950453</v>
+        <v>0.8812486247515136</v>
       </c>
     </row>
     <row r="27">
@@ -2292,19 +2292,19 @@
         <v>429531</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>392612</v>
+        <v>392956</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>471741</v>
+        <v>470929</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1546882204377477</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1413925669085788</v>
+        <v>0.1415163896537507</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1698894852450107</v>
+        <v>0.1695969681771633</v>
       </c>
     </row>
     <row r="29">
@@ -2321,19 +2321,19 @@
         <v>2347223</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2305013</v>
+        <v>2305825</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2384142</v>
+        <v>2383798</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8453117795622522</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8301105147549896</v>
+        <v>0.8304030318228367</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8586074330914214</v>
+        <v>0.8584836103462492</v>
       </c>
     </row>
     <row r="30">
@@ -2505,19 +2505,19 @@
         <v>33102</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24943</v>
+        <v>25718</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41099</v>
+        <v>40558</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.191223060178499</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.144091791119894</v>
+        <v>0.1485657821932113</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2374168242869863</v>
+        <v>0.2342967266500774</v>
       </c>
     </row>
     <row r="5">
@@ -2534,19 +2534,19 @@
         <v>140005</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>132008</v>
+        <v>132549</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>148164</v>
+        <v>147389</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.808776939821501</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7625831757130135</v>
+        <v>0.7657032733499226</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8559082088801053</v>
+        <v>0.8514342178067886</v>
       </c>
     </row>
     <row r="6">
@@ -2596,19 +2596,19 @@
         <v>94996</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>81517</v>
+        <v>80086</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>112484</v>
+        <v>111779</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2730755529833122</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2343291488634279</v>
+        <v>0.230213535851997</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3233446857971458</v>
+        <v>0.3213193828847887</v>
       </c>
     </row>
     <row r="8">
@@ -2625,19 +2625,19 @@
         <v>252879</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>235391</v>
+        <v>236096</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>266358</v>
+        <v>267789</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7269244470166878</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6766553142028541</v>
+        <v>0.6786806171152113</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7656708511365722</v>
+        <v>0.769786464148003</v>
       </c>
     </row>
     <row r="9">
@@ -2687,19 +2687,19 @@
         <v>31085</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23542</v>
+        <v>23700</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39758</v>
+        <v>39641</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1685905573534626</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1276786933821352</v>
+        <v>0.1285356656937389</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2156280258582004</v>
+        <v>0.2149903484988421</v>
       </c>
     </row>
     <row r="11">
@@ -2716,19 +2716,19 @@
         <v>153299</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>144626</v>
+        <v>144743</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>160842</v>
+        <v>160684</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8314094426465375</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7843719741417998</v>
+        <v>0.7850096515011576</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8723213066178649</v>
+        <v>0.8714643343062609</v>
       </c>
     </row>
     <row r="12">
@@ -2778,19 +2778,19 @@
         <v>58299</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47098</v>
+        <v>46462</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71665</v>
+        <v>70890</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2328653261038371</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1881243103811443</v>
+        <v>0.1855842211736964</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2862534359854006</v>
+        <v>0.2831580107246268</v>
       </c>
     </row>
     <row r="14">
@@ -2807,19 +2807,19 @@
         <v>192057</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>178691</v>
+        <v>179466</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>203258</v>
+        <v>203894</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7671346738961629</v>
+        <v>0.767134673896163</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7137465640145996</v>
+        <v>0.7168419892753733</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8118756896188558</v>
+        <v>0.8144157788263036</v>
       </c>
     </row>
     <row r="15">
@@ -2869,19 +2869,19 @@
         <v>26988</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20703</v>
+        <v>20734</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33757</v>
+        <v>34919</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1930486522285521</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1480944702334465</v>
+        <v>0.1483115334437851</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2414725063070194</v>
+        <v>0.2497813835926208</v>
       </c>
     </row>
     <row r="17">
@@ -2898,19 +2898,19 @@
         <v>112810</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>106041</v>
+        <v>104879</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>119095</v>
+        <v>119064</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8069513477714479</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7585274936929804</v>
+        <v>0.7502186164073793</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8519055297665534</v>
+        <v>0.851688466556215</v>
       </c>
     </row>
     <row r="18">
@@ -2960,19 +2960,19 @@
         <v>23207</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17234</v>
+        <v>16666</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30782</v>
+        <v>30873</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1652793427670704</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1227393733471486</v>
+        <v>0.1186928988058134</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2192305728509314</v>
+        <v>0.2198788639371942</v>
       </c>
     </row>
     <row r="20">
@@ -2989,19 +2989,19 @@
         <v>117204</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>109629</v>
+        <v>109538</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>123177</v>
+        <v>123745</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8347206572329295</v>
+        <v>0.8347206572329297</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7807694271490685</v>
+        <v>0.7801211360628056</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8772606266528514</v>
+        <v>0.8813071011941868</v>
       </c>
     </row>
     <row r="21">
@@ -3051,19 +3051,19 @@
         <v>195796</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>175123</v>
+        <v>176597</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>215312</v>
+        <v>214207</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4352252996411271</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.389271340299174</v>
+        <v>0.3925495680718184</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.478605876420984</v>
+        <v>0.4761493819835765</v>
       </c>
     </row>
     <row r="23">
@@ -3080,19 +3080,19 @@
         <v>254077</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>234561</v>
+        <v>235666</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>274750</v>
+        <v>273276</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5647747003588729</v>
+        <v>0.564774700358873</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5213941235790159</v>
+        <v>0.5238506180164234</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.610728659700826</v>
+        <v>0.6074504319281816</v>
       </c>
     </row>
     <row r="24">
@@ -3142,19 +3142,19 @@
         <v>49350</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>38646</v>
+        <v>38316</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63320</v>
+        <v>63564</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1162723376277843</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09105200036143171</v>
+        <v>0.09027349513863048</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1491863373170147</v>
+        <v>0.1497607937383191</v>
       </c>
     </row>
     <row r="26">
@@ -3171,19 +3171,19 @@
         <v>375088</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>361118</v>
+        <v>360874</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>385792</v>
+        <v>386122</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8837276623722157</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8508136626829853</v>
+        <v>0.8502392062616811</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9089479996385681</v>
+        <v>0.9097265048613701</v>
       </c>
     </row>
     <row r="27">
@@ -3233,19 +3233,19 @@
         <v>512824</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>479629</v>
+        <v>476275</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>547954</v>
+        <v>545791</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.2430167787613406</v>
+        <v>0.2430167787613405</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2272862255232194</v>
+        <v>0.2256968752113514</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2596637599534641</v>
+        <v>0.2586387981975807</v>
       </c>
     </row>
     <row r="29">
@@ -3262,19 +3262,19 @@
         <v>1597419</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1562289</v>
+        <v>1564452</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1630614</v>
+        <v>1633968</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7569832212386595</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7403362400465359</v>
+        <v>0.7413612018024193</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7727137744767807</v>
+        <v>0.7743031247886487</v>
       </c>
     </row>
     <row r="30">
